--- a/misumi_bearings_4_col.xlsx
+++ b/misumi_bearings_4_col.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4215,6 +4215,7426 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C-SE6000ZZ</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>19,270 VND</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6000ZZ</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2304</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C-SE6001ZZ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>21,326 VND</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6001ZZ</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2593</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C-SE6002ZZ</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>24,697 VND</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6002ZZ</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2831</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C-SE6003ZZ</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>29,434 VND</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6003ZZ</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>3026</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C-SE6004ZZ</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>42,968 VND</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6004ZZ</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4752</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C-SE6005ZZ</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>53,103 VND</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6005ZZ</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C-SE6006ZZ</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>69,999 VND</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6006ZZ</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>11220</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C-SE6007ZZ</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>90,234 VND</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6007ZZ</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C-SE6008ZZ</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>117,238 VND</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6008ZZ</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>14280</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C-SE6009ZZ</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>151,038 VND</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6009ZZ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>17765</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C-SE6010ZZ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>191,416 VND</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6010ZZ</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>18530</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C-SE6200ZZ</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>24,018 VND</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6200ZZ</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2593</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C-SE6201ZZ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>26,769 VND</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6201ZZ</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>3443</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>C-SE6202ZZ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>29,452 VND</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6202ZZ</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C-SE6203ZZ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>42,960 VND</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6203ZZ</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C-SE6204ZZ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>53,188 VND</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6204ZZ</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>6477</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C-SE6205ZZ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>70,041 VND</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6205ZZ</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>C-SE6206ZZ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>93,810 VND</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6206ZZ</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>9877</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>C-SE6207ZZ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>130,990 VND</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6207ZZ</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>21845</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>C-SE6208ZZ</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>178,331 VND</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6208ZZ</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>24735</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C-SE6209ZZ</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>232,256 VND</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6209ZZ</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>26775</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>C-SE6210ZZ</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>272,697 VND</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6210ZZ</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>29750</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C-SE6300ZZ</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>36,156 VND</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6300ZZ</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C-SE6301ZZ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>41,572 VND</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6301ZZ</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>4905</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C-SE6302ZZ</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>48,406 VND</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6302ZZ</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>5780</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>C-SE6303ZZ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>63,235 VND</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6303ZZ</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>6843</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Chống bụi / Tốc độ quay cao</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Xuyên tâm</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>C-SE6304ZZ</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>76,778 VND</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6304ZZ</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>8024</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>C-SE6305ZZ</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>110,707 VND</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6305ZZ</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C-SE6306ZZ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>178,260 VND</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6306ZZ</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>22695</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>C-SE6307ZZ</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>245,840 VND</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6307ZZ</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>28475</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C-SE6308ZZ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>320,279 VND</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6308ZZ</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>34425</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>C-SE6309ZZ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>448,610 VND</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6309ZZ</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>45050</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C-SE6310ZZ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>509,810 VND</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6310ZZ</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>52700</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C-SE6700ZZ</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>21,260 VND</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6700ZZ</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>C-SE6701ZZ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>23,922 VND</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6701ZZ</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C-SE6702ZZ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>29,315 VND</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6702ZZ</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>C-SE6703ZZ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>42,751 VND</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6703ZZ</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>C-SE6704ZZ</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>56,195 VND</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6704ZZ</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>C-SE6800ZZ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>19,221 VND</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6800ZZ</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>C-SE6801ZZ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>21,275 VND</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6801ZZ</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>C-SE6802ZZ</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>23,252 VND</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6802ZZ</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>C-SE6803ZZ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>29,329 VND</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6803ZZ</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>1131</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>C-SE6804ZZ</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>37,412 VND</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6804ZZ</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>C-SE6805ZZ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>49,494 VND</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6805ZZ</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>C-SE6806ZZ</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>59,606 VND</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6806ZZ</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>C-SE6807ZZ</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>76,399 VND</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6807ZZ</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>C-SE6808ZZ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>103,277 VND</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6808ZZ</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>4185</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>C-SE6809ZZ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>123,501 VND</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6809ZZ</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C-SE6810ZZ</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>150,450 VND</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6810ZZ</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>5619</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>C-SE6900ZZ</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>19,236 VND</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6900ZZ</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>1360</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>C-SE6901ZZ</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>21,291 VND</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6901ZZ</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>1462</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>C-SE6902ZZ</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>23,284 VND</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6902ZZ</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>C-SE6903ZZ</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>29,362 VND</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6903ZZ</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2321</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>C-SE6904ZZ</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>36,103 VND</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6904ZZ</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>C-SE6905ZZ</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>49,560 VND</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6905ZZ</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>3332</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>C-SE6906ZZ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>63,034 VND</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6906ZZ</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>10404</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>C-SE6907ZZ</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>83,344 VND</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6907ZZ</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>9265</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>C-SE6908ZZ</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>110,363 VND</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6908ZZ</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>11626</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>C-SE6909ZZ</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>130,536 VND</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6909ZZ</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>11985</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>C-SE6910ZZ</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>157,399 VND</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310432629/?HissuCode=C-SE6910ZZ</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>12359</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn / Chống bụi</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Trọng tâm xuyên tâm / Force, Direction</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B6000ZZ</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>63,599 VND</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6000ZZ</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B6001ZZ</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>66,935 VND</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6001ZZ</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>27000</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B6002ZZ</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>73,609 VND</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6002ZZ</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>5900</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>23000</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B6003ZZ</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>76,944 VND</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6003ZZ</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>6400 ～ 6800</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B6004ZZ</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>83,617 VND</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6004ZZ</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>17000</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B6005ZZ</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>93,627 VND</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6005ZZ</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>10700</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B6006ZZ</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>113,645 VND</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6006ZZ</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>13200～13500</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B6007ZZ</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>140,543 VND</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6007ZZ</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>17000</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B6008ZZ</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>180,581 VND</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6008ZZ</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>16800 ～ 17800</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>9500</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B6009ZZ</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>234,171 VND</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>6 ngày</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6009ZZ</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>21200</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>8800</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B6010ZZ</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>271,079 VND</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6010ZZ</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>22000</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>8300</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B6200ZZ</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>53,589 VND</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6200ZZ</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>24000</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B6201ZZ</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>60,262 VND</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6201ZZ</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>6100 ～ 6800</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>22000</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B6202ZZ</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>63,599 VND</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6202ZZ</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>8200</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B6203ZZ</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>76,944 VND</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6203ZZ</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>17000</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B6204ZZ</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>86,954 VND</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6204ZZ</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B6205ZZ</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>100,299 VND</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6205ZZ</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>14900</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B6206ZZ</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>133,871 VND</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6206ZZ</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>19500 ～ 20700</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B6207ZZ</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>177,244 VND</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6207ZZ</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>27500</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B6208ZZ</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>227,498 VND</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6208ZZ</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>31000</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>8200</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B6209ZZ</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>277,752 VND</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6209ZZ</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>33000</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B6210ZZ</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>317,788 VND</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6210ZZ</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>39000</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>B6300ZZ</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>73,609 VND</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6300ZZ</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>8100～8600</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>B6301ZZ</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>80,281 VND</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6301ZZ</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>10300</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>B6302ZZ</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>80,281 VND</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6302ZZ</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>11400</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>17000</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>B6303ZZ</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>96,962 VND</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6303ZZ</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>14400</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>B6304ZZ</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>113,645 VND</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6304ZZ</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>16900</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>B6305ZZ</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>143,880 VND</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6305ZZ</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>23800</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>B6306ZZ</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>183,916 VND</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6306ZZ</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>30500</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>9200</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>B6307ZZ</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>247,516 VND</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4 ngày</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6307ZZ</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>35500</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>8400</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>B6308ZZ</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>364,706 VND</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6308ZZ</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>45400</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>B6309ZZ</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>461,669 VND</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4 ngày</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6309ZZ</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>56000</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>B6310ZZ</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>551,959 VND</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>6 ngày</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6310ZZ</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>68000</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>B6700ZZ</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>227,498 VND</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6700ZZ</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>B6701ZZ</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>234,171 VND</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6701ZZ</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>B6702ZZ</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>274,415 VND</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6702ZZ</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>B6703ZZ</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>428,306 VND</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6703ZZ</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>9500</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>B6704ZZ</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>236,400 VND</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6704ZZ</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>8500</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>B6800ZZ</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>117,189 VND</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6800ZZ</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>1720</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>34000</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>B6801ZZ</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>120,525 VND</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6801ZZ</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>32000</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>B6802ZZ</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>133,871 VND</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6802ZZ</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>27000</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>B6803ZZ</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>140,543 VND</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6803ZZ</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>B6804ZZ</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>143,880 VND</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6804ZZ</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>B6805ZZ</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>160,562 VND</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6805ZZ</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>B6806ZZ</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>200,806 VND</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6806ZZ</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>4540</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>B6807ZZ</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>240,844 VND</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6807ZZ</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>4740</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>B6808ZZ</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>274,415 VND</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6808ZZ</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>4930</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>B6809ZZ</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>321,125 VND</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>11 ngày</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6809ZZ</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>B6810ZZ</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>384,724 VND</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6810ZZ</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>9500</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>B6900ZZ</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>96,962 VND</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6900ZZ</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>32000</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>B6901ZZ</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>103,635 VND</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6901ZZ</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>B6902ZZ</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>113,645 VND</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6902ZZ</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>4330</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>26000</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>B6903ZZ</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>117,189 VND</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6903ZZ</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>4590～4650</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>23000</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>B6904ZZ</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>120,525 VND</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6904ZZ</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>B6905ZZ</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>137,207 VND</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6905ZZ</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>16000</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>B6906ZZ</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>163,898 VND</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6906ZZ</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>7250</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>B6907ZZ</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>183,916 VND</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6907ZZ</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>10900</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>B6908ZZ</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>207,479 VND</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6908ZZ</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>13700</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>B6909ZZ</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>254,189 VND</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Cùng ngày</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6909ZZ</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Có sẵn</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>14100</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>9500</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>B6910ZZ</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>307,779 VND</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6 ngày</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110300107740/?HissuCode=B6910ZZ</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1 Mảnh</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>14500</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
